--- a/biology/Botanique/Renouée_polymorphe/Renouée_polymorphe.xlsx
+++ b/biology/Botanique/Renouée_polymorphe/Renouée_polymorphe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Renou%C3%A9e_polymorphe</t>
+          <t>Renouée_polymorphe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Koenigia ×fennica
 La Renouée polymorphe (Koenigia ×fennica), est une espèce de plante de la famille des Polygonaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Renou%C3%A9e_polymorphe</t>
+          <t>Renouée_polymorphe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-La Renouée polymorphe est une plante herbacée vivace pouvant atteidre 2,5 m de haut[1].
-Appareil reproducteur
-L'inflorescence est une grappe de fleurs plumeuse et blanc crème[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Renouée polymorphe est une plante herbacée vivace pouvant atteidre 2,5 m de haut.
 </t>
         </is>
       </c>
@@ -528,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Renou%C3%A9e_polymorphe</t>
+          <t>Renouée_polymorphe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Renouée polymorphe pousse dans plusieurs types de sols, mais elle préfère les sols riches et frais e&lt;dans des milieux ensoleillés[1].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence est une grappe de fleurs plumeuse et blanc crème.
 </t>
         </is>
       </c>
@@ -559,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Renou%C3%A9e_polymorphe</t>
+          <t>Renouée_polymorphe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,13 +595,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Renouée polymorphe pousse dans plusieurs types de sols, mais elle préfère les sols riches et frais e&lt;dans des milieux ensoleillés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Renouée_polymorphe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Renou%C3%A9e_polymorphe</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Horicoles
-La plante est surtout utilisée utilisée en arrière-plan dans les plate-bandes, isolée ou pour des haies[1],[2].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Horicoles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est surtout utilisée utilisée en arrière-plan dans les plate-bandes, isolée ou pour des haies,.
 </t>
         </is>
       </c>
